--- a/api test cases_v2.xlsx
+++ b/api test cases_v2.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="117">
   <si>
     <t>ID</t>
   </si>
@@ -227,9 +227,6 @@
     <t>Невалидный поисковой запрос</t>
   </si>
   <si>
-    <t>Проверка Header в запросе</t>
-  </si>
-  <si>
     <t>Проверить какие методы подерживаются</t>
   </si>
   <si>
@@ -315,10 +312,6 @@
 2. В Response Headers в поле allow перечисленны допустимые методы (allow: GET, HEAD, OPTIONS)</t>
   </si>
   <si>
-    <t>1. Отображается ответ с информацией о R2-D2
-2. Данные в Response Headers соответствуют документации</t>
-  </si>
-  <si>
     <t>1. Выполнить GET запрос, например "https://swapi.co/api/people/1/"</t>
   </si>
   <si>
@@ -342,10 +335,6 @@
 2. Проанализировать Response Headers</t>
   </si>
   <si>
-    <t>1. Выполнить GET запрос, например  "https://swapi.co/api/people/3/"
-2. Проанализировать Response Headers</t>
-  </si>
-  <si>
     <t>Выполнить запрос на поиск C-3PO</t>
   </si>
   <si>
@@ -398,13 +387,98 @@
   </si>
   <si>
     <t>1. Проверить ссылку запроса на корректность</t>
+  </si>
+  <si>
+    <t>Сделать HEAD запрос</t>
+  </si>
+  <si>
+    <t>1. Выполнить HEAD запрос, например  "https://swapi.co/api/people/3/"</t>
+  </si>
+  <si>
+    <t>Сделать OPTIONS запрос</t>
+  </si>
+  <si>
+    <t>1. Выполнить OPTIONS запрос, например  "https://swapi.co/api/people/3/"</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Отображается ответ с информацией в заголовке
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>access-control-allow-headers →x-requested-with, content-type, accept, origin, authorization, x-csrftoken, user-agent, accept-encoding
+access-control-allow-methods →GET
+access-control-allow-origin →*
+access-control-max-age →86400
+allow →GET, HEAD, OPTIONS
+cf-ray →40b61b78e9044f20-DME
+content-encoding →br
+content-type →application/json
+date →Sat, 14 Apr 2018 12:17:05 GMT
+etag →W/"5b99463b9b85de672f3c7f215632fa16"
+expect-ct →max-age=604800, report-uri="https://report-uri.cloudflare.com/cdn-cgi/beacon/expect-ct"
+server →cloudflare</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Отображается ответ с информацией в заголовке
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>allow →GET, HEAD, OPTIONS
+cf-ray →40b61b2ca8c34f20-DME
+content-encoding →br
+content-type →application/json
+date →Sat, 14 Apr 2018 12:16:53 GMT
+etag →W/"12ab654eadb375cb1bf3d5be6f062389"
+expect-ct →max-age=604800, report-uri="https://report-uri.cloudflare.com/cdn-cgi/beacon/expect-ct"
+server →cloudflare
+status →200
+vary →Accept, Cookie
+via →1.1 vegur</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Выполнить GET запрос "https://swapi.co/api/people/4/?format=api"</t>
+  </si>
+  <si>
+    <t>1. В качестве ответа приходит информация на вуки языке</t>
+  </si>
+  <si>
+    <t>1. Выполнить GET запрос "https://swapi.co/api/people/4/?format=wookiee"</t>
+  </si>
+  <si>
+    <t>Сделать запрос с форматом wookiee</t>
+  </si>
+  <si>
+    <t>Сделать запрос с форматом api</t>
+  </si>
+  <si>
+    <t>1. В качестве ответа приходит html</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -435,6 +509,14 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -770,7 +852,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -802,13 +884,13 @@
         <v>4</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="30">
@@ -816,13 +898,13 @@
         <v>5</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="60">
@@ -830,13 +912,13 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="30">
@@ -844,13 +926,13 @@
         <v>7</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="30">
@@ -858,13 +940,13 @@
         <v>8</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="30">
@@ -872,13 +954,13 @@
         <v>9</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="32.25" customHeight="1">
@@ -886,13 +968,13 @@
         <v>10</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="78.75" customHeight="1">
@@ -900,55 +982,55 @@
         <v>11</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="51.75" customHeight="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="168.75" customHeight="1">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>59</v>
+        <v>105</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="45">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="202.5" customHeight="1">
       <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="30">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="45">
       <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>58</v>
+        <v>115</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="45">
@@ -956,55 +1038,55 @@
         <v>15</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>99</v>
+        <v>114</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>113</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="90">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="45">
       <c r="A14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>57</v>
+      <c r="B14" s="3" t="s">
+        <v>88</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>61</v>
+        <v>89</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="90">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="30">
       <c r="A15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>45</v>
+      <c r="B15" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="90">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="45">
       <c r="A16" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>72</v>
+      <c r="B16" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>96</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>27</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="90">
@@ -1012,13 +1094,13 @@
         <v>47</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="90">
@@ -1026,13 +1108,13 @@
         <v>48</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="90">
@@ -1040,41 +1122,41 @@
         <v>49</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="150">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="90">
       <c r="A20" s="3" t="s">
         <v>50</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="210">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="90">
       <c r="A21" s="3" t="s">
         <v>51</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="90">
@@ -1082,41 +1164,41 @@
         <v>52</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="90">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="150">
       <c r="A23" s="3" t="s">
         <v>53</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="90">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="210">
       <c r="A24" s="3" t="s">
         <v>54</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="90">
@@ -1124,13 +1206,13 @@
         <v>55</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="90">
@@ -1138,26 +1220,59 @@
         <v>56</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="90">
+      <c r="A27" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="90">
+      <c r="B28" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="90">
+      <c r="B29" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D26" s="2" t="s">
+      <c r="C29" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="135">
-      <c r="A27" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B27" s="2" t="s">
+    <row r="30" spans="1:4" ht="135">
+      <c r="B30" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D27" s="2" t="s">
+      <c r="C30" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>44</v>
       </c>
     </row>

--- a/api test cases_v2.xlsx
+++ b/api test cases_v2.xlsx
@@ -357,9 +357,6 @@
   </si>
   <si>
     <t>1. Выполнить GET запрос, например "https://swapi.co/api/people/?search=bb-8"</t>
-  </si>
-  <si>
-    <t>1. Отображается ответ c предупреждение что данная информация не найдена</t>
   </si>
   <si>
     <t>1. Выполнить запрос "https://swapi.co/api/people/?page=2&amp;filter%5Bgender%5D=male"</t>
@@ -472,6 +469,9 @@
   </si>
   <si>
     <t>1. В качестве ответа приходит html</t>
+  </si>
+  <si>
+    <t>1. Отображается ответ c предупреждением что данная информация не найдена</t>
   </si>
 </sst>
 </file>
@@ -884,13 +884,13 @@
         <v>4</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>81</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="30">
@@ -898,7 +898,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>82</v>
@@ -912,7 +912,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>83</v>
@@ -929,7 +929,7 @@
         <v>75</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>76</v>
@@ -996,13 +996,13 @@
         <v>12</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="D10" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="202.5" customHeight="1">
@@ -1010,13 +1010,13 @@
         <v>13</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="45">
@@ -1024,13 +1024,13 @@
         <v>14</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="45">
@@ -1038,13 +1038,13 @@
         <v>15</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="45">
@@ -1072,7 +1072,7 @@
         <v>94</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="45">
@@ -1080,13 +1080,13 @@
         <v>46</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="90">
@@ -1231,7 +1231,7 @@
     </row>
     <row r="27" spans="1:4" ht="90">
       <c r="A27" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>29</v>
